--- a/Selenium/Bugs/data/style/아이돌.xlsx
+++ b/Selenium/Bugs/data/style/아이돌.xlsx
@@ -184,7 +184,7 @@
     <t>Winter Fantasy</t>
   </si>
   <si>
-    <t>첫눈이 와 (First Snow)</t>
+    <t xml:space="preserve">첫눈이 와 (First Snow) </t>
   </si>
   <si>
     <t>내가 갈게 (I'll be there)</t>
@@ -616,7 +616,7 @@
     <t>DUN DUN</t>
   </si>
   <si>
-    <t>사랑해 (I LOVE YOU)</t>
+    <t xml:space="preserve">사랑해 (I LOVE YOU) </t>
   </si>
   <si>
     <t>To You 2020</t>
